--- a/branches/alternative2/StructureDefinition-DefinedMed.xlsx
+++ b/branches/alternative2/StructureDefinition-DefinedMed.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T10:36:54+00:00</t>
+    <t>2022-01-10T10:51:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/alternative2/StructureDefinition-DefinedMed.xlsx
+++ b/branches/alternative2/StructureDefinition-DefinedMed.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T10:51:56+00:00</t>
+    <t>2022-01-10T13:49:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/alternative2/StructureDefinition-DefinedMed.xlsx
+++ b/branches/alternative2/StructureDefinition-DefinedMed.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T13:49:22+00:00</t>
+    <t>2022-01-10T14:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/alternative2/StructureDefinition-DefinedMed.xlsx
+++ b/branches/alternative2/StructureDefinition-DefinedMed.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T14:20:15+00:00</t>
+    <t>2022-01-10T19:37:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/alternative2/StructureDefinition-DefinedMed.xlsx
+++ b/branches/alternative2/StructureDefinition-DefinedMed.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T19:37:31+00:00</t>
+    <t>2022-01-10T19:38:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/alternative2/StructureDefinition-DefinedMed.xlsx
+++ b/branches/alternative2/StructureDefinition-DefinedMed.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T19:38:49+00:00</t>
+    <t>2022-01-10T19:48:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/alternative2/StructureDefinition-DefinedMed.xlsx
+++ b/branches/alternative2/StructureDefinition-DefinedMed.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T19:48:00+00:00</t>
+    <t>2022-01-11T09:25:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/alternative2/StructureDefinition-DefinedMed.xlsx
+++ b/branches/alternative2/StructureDefinition-DefinedMed.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T09:25:15+00:00</t>
+    <t>2022-01-11T09:54:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
